--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4082226666666667</v>
+        <v>0.2551406666666667</v>
       </c>
       <c r="H2">
-        <v>1.224668</v>
+        <v>0.765422</v>
       </c>
       <c r="I2">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="J2">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>4.082696258807555</v>
+        <v>4.631576941642001</v>
       </c>
       <c r="R2">
-        <v>36.744266329268</v>
+        <v>41.684192474778</v>
       </c>
       <c r="S2">
-        <v>0.002505645955600769</v>
+        <v>0.00884927567523403</v>
       </c>
       <c r="T2">
-        <v>0.002505645955600769</v>
+        <v>0.00884927567523403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4082226666666667</v>
+        <v>0.2551406666666667</v>
       </c>
       <c r="H3">
-        <v>1.224668</v>
+        <v>0.765422</v>
       </c>
       <c r="I3">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="J3">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>29.13937714040845</v>
+        <v>18.21221778438378</v>
       </c>
       <c r="R3">
-        <v>262.254394263676</v>
+        <v>163.909960059454</v>
       </c>
       <c r="S3">
-        <v>0.01788351566028942</v>
+        <v>0.03479698985077754</v>
       </c>
       <c r="T3">
-        <v>0.01788351566028942</v>
+        <v>0.03479698985077754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4082226666666667</v>
+        <v>0.2551406666666667</v>
       </c>
       <c r="H4">
-        <v>1.224668</v>
+        <v>0.765422</v>
       </c>
       <c r="I4">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="J4">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>28.49552032216267</v>
+        <v>16.85706985587333</v>
       </c>
       <c r="R4">
-        <v>256.459682899464</v>
+        <v>151.71362870286</v>
       </c>
       <c r="S4">
-        <v>0.01748836570781788</v>
+        <v>0.03220779015676149</v>
       </c>
       <c r="T4">
-        <v>0.01748836570781788</v>
+        <v>0.0322077901567615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4082226666666667</v>
+        <v>0.2551406666666667</v>
       </c>
       <c r="H5">
-        <v>1.224668</v>
+        <v>0.765422</v>
       </c>
       <c r="I5">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="J5">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>8.311964866081778</v>
+        <v>4.378426882456668</v>
       </c>
       <c r="R5">
-        <v>74.80768379473601</v>
+        <v>39.40584194211001</v>
       </c>
       <c r="S5">
-        <v>0.005101246781428813</v>
+        <v>0.008365597073073397</v>
       </c>
       <c r="T5">
-        <v>0.005101246781428813</v>
+        <v>0.008365597073073397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4082226666666667</v>
+        <v>0.2551406666666667</v>
       </c>
       <c r="H6">
-        <v>1.224668</v>
+        <v>0.765422</v>
       </c>
       <c r="I6">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="J6">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>12.37006706996489</v>
+        <v>8.436574070155778</v>
       </c>
       <c r="R6">
-        <v>111.330603629684</v>
+        <v>75.929166631402</v>
       </c>
       <c r="S6">
-        <v>0.007591798791669254</v>
+        <v>0.01611925498421534</v>
       </c>
       <c r="T6">
-        <v>0.007591798791669254</v>
+        <v>0.01611925498421534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4082226666666667</v>
+        <v>0.2551406666666667</v>
       </c>
       <c r="H7">
-        <v>1.224668</v>
+        <v>0.765422</v>
       </c>
       <c r="I7">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="J7">
-        <v>0.07055426382246109</v>
+        <v>0.1440148895149299</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>32.56139998429111</v>
+        <v>22.85934776087823</v>
       </c>
       <c r="R7">
-        <v>293.0525998586201</v>
+        <v>205.734129847904</v>
       </c>
       <c r="S7">
-        <v>0.01998369092565495</v>
+        <v>0.04367598177486806</v>
       </c>
       <c r="T7">
-        <v>0.01998369092565496</v>
+        <v>0.04367598177486806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.367814</v>
       </c>
       <c r="I8">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="J8">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>4.559904480679333</v>
+        <v>8.276657559954</v>
       </c>
       <c r="R8">
-        <v>41.039140326114</v>
+        <v>74.489918039586</v>
       </c>
       <c r="S8">
-        <v>0.002798519776065113</v>
+        <v>0.01581371212016973</v>
       </c>
       <c r="T8">
-        <v>0.002798519776065113</v>
+        <v>0.01581371212016973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.367814</v>
       </c>
       <c r="I9">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="J9">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
-        <v>32.54534943668867</v>
+        <v>32.54534943668866</v>
       </c>
       <c r="R9">
         <v>292.908144930198</v>
       </c>
       <c r="S9">
-        <v>0.01997384033008383</v>
+        <v>0.0621824429866811</v>
       </c>
       <c r="T9">
-        <v>0.01997384033008383</v>
+        <v>0.0621824429866811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>1.367814</v>
       </c>
       <c r="I10">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="J10">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>31.826235056308</v>
+        <v>30.12369143798</v>
       </c>
       <c r="R10">
-        <v>286.436115506772</v>
+        <v>271.11322294182</v>
       </c>
       <c r="S10">
-        <v>0.01953250305574507</v>
+        <v>0.05755552660555948</v>
       </c>
       <c r="T10">
-        <v>0.01953250305574507</v>
+        <v>0.05755552660555949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>1.367814</v>
       </c>
       <c r="I11">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="J11">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>9.283513500258668</v>
+        <v>7.824276788230001</v>
       </c>
       <c r="R11">
-        <v>83.551621502328</v>
+        <v>70.41849109406999</v>
       </c>
       <c r="S11">
-        <v>0.005697508847371915</v>
+        <v>0.0149493753705914</v>
       </c>
       <c r="T11">
-        <v>0.005697508847371915</v>
+        <v>0.0149493753705914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.367814</v>
       </c>
       <c r="I12">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="J12">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>13.81594923623133</v>
+        <v>15.07621171745267</v>
       </c>
       <c r="R12">
-        <v>124.343543126082</v>
+        <v>135.685905457074</v>
       </c>
       <c r="S12">
-        <v>0.008479170413882202</v>
+        <v>0.0288052115525547</v>
       </c>
       <c r="T12">
-        <v>0.008479170413882202</v>
+        <v>0.0288052115525547</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.367814</v>
       </c>
       <c r="I13">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="J13">
-        <v>0.07880103817202359</v>
+        <v>0.2573555268688047</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>36.36735732305667</v>
+        <v>40.84980036920533</v>
       </c>
       <c r="R13">
-        <v>327.30621590751</v>
+        <v>367.648203322848</v>
       </c>
       <c r="S13">
-        <v>0.02231949574887545</v>
+        <v>0.07804925823324828</v>
       </c>
       <c r="T13">
-        <v>0.02231949574887546</v>
+        <v>0.07804925823324828</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.392313</v>
+        <v>0.1895623333333334</v>
       </c>
       <c r="H14">
-        <v>1.176939</v>
+        <v>0.5686870000000001</v>
       </c>
       <c r="I14">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="J14">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>3.923581290721</v>
+        <v>3.441131292557001</v>
       </c>
       <c r="R14">
-        <v>35.31223161648899</v>
+        <v>30.97018163301301</v>
       </c>
       <c r="S14">
-        <v>0.002407993387055768</v>
+        <v>0.006574762726864154</v>
       </c>
       <c r="T14">
-        <v>0.002407993387055768</v>
+        <v>0.006574762726864155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.392313</v>
+        <v>0.1895623333333334</v>
       </c>
       <c r="H15">
-        <v>1.176939</v>
+        <v>0.5686870000000001</v>
       </c>
       <c r="I15">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="J15">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>28.003727861147</v>
+        <v>13.53116515483989</v>
       </c>
       <c r="R15">
-        <v>252.033550750323</v>
+        <v>121.780486393559</v>
       </c>
       <c r="S15">
-        <v>0.01718654119949681</v>
+        <v>0.02585318395247214</v>
       </c>
       <c r="T15">
-        <v>0.01718654119949681</v>
+        <v>0.02585318395247214</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.392313</v>
+        <v>0.1895623333333334</v>
       </c>
       <c r="H16">
-        <v>1.176939</v>
+        <v>0.5686870000000001</v>
       </c>
       <c r="I16">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="J16">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>27.384964082058</v>
+        <v>12.52432839025667</v>
       </c>
       <c r="R16">
-        <v>246.464676738522</v>
+        <v>112.71895551231</v>
       </c>
       <c r="S16">
-        <v>0.01680679143065179</v>
+        <v>0.02392948146366086</v>
       </c>
       <c r="T16">
-        <v>0.01680679143065179</v>
+        <v>0.02392948146366087</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.392313</v>
+        <v>0.1895623333333334</v>
       </c>
       <c r="H17">
-        <v>1.176939</v>
+        <v>0.5686870000000001</v>
       </c>
       <c r="I17">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="J17">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>7.988022564092</v>
+        <v>3.253047924548334</v>
       </c>
       <c r="R17">
-        <v>71.892203076828</v>
+        <v>29.277431320935</v>
       </c>
       <c r="S17">
-        <v>0.004902435832150463</v>
+        <v>0.006215403140613794</v>
       </c>
       <c r="T17">
-        <v>0.004902435832150463</v>
+        <v>0.006215403140613794</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.392313</v>
+        <v>0.1895623333333334</v>
       </c>
       <c r="H18">
-        <v>1.176939</v>
+        <v>0.5686870000000001</v>
       </c>
       <c r="I18">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="J18">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>11.887968304273</v>
+        <v>6.26813705150189</v>
       </c>
       <c r="R18">
-        <v>106.991714738457</v>
+        <v>56.413233463517</v>
       </c>
       <c r="S18">
-        <v>0.007295923530351424</v>
+        <v>0.01197615270949682</v>
       </c>
       <c r="T18">
-        <v>0.007295923530351424</v>
+        <v>0.01197615270949682</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.392313</v>
+        <v>0.1895623333333334</v>
       </c>
       <c r="H19">
-        <v>1.176939</v>
+        <v>0.5686870000000001</v>
       </c>
       <c r="I19">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="J19">
-        <v>0.06780455168988127</v>
+        <v>0.1069990090088564</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>31.292384169515</v>
+        <v>16.98385191448711</v>
       </c>
       <c r="R19">
-        <v>281.631457525635</v>
+        <v>152.854667230384</v>
       </c>
       <c r="S19">
-        <v>0.01920486631017501</v>
+        <v>0.03245002501574869</v>
       </c>
       <c r="T19">
-        <v>0.01920486631017502</v>
+        <v>0.03245002501574869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.338586666666667</v>
+        <v>0.4422173333333334</v>
       </c>
       <c r="H20">
-        <v>13.01576</v>
+        <v>1.326652</v>
       </c>
       <c r="I20">
-        <v>0.7498500531489646</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="J20">
-        <v>0.7498500531489645</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>43.39085748752889</v>
+        <v>8.027585845172002</v>
       </c>
       <c r="R20">
-        <v>390.51771738776</v>
+        <v>72.24827260654801</v>
       </c>
       <c r="S20">
-        <v>0.02662998167917368</v>
+        <v>0.01533782576552618</v>
       </c>
       <c r="T20">
-        <v>0.02662998167917367</v>
+        <v>0.01533782576552618</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.338586666666667</v>
+        <v>0.4422173333333334</v>
       </c>
       <c r="H21">
-        <v>13.01576</v>
+        <v>1.326652</v>
       </c>
       <c r="I21">
-        <v>0.7498500531489646</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="J21">
-        <v>0.7498500531489645</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>309.6930265255911</v>
+        <v>31.56595335395156</v>
       </c>
       <c r="R21">
-        <v>2787.23723873032</v>
+        <v>284.0935801855641</v>
       </c>
       <c r="S21">
-        <v>0.1900658364475666</v>
+        <v>0.06031116975931412</v>
       </c>
       <c r="T21">
-        <v>0.1900658364475667</v>
+        <v>0.06031116975931412</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.338586666666667</v>
+        <v>0.4422173333333334</v>
       </c>
       <c r="H22">
-        <v>13.01576</v>
+        <v>1.326652</v>
       </c>
       <c r="I22">
-        <v>0.7498500531489646</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="J22">
-        <v>0.7498500531489645</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>302.8501223093867</v>
+        <v>29.21717097030667</v>
       </c>
       <c r="R22">
-        <v>2725.65110078448</v>
+        <v>262.9545387327601</v>
       </c>
       <c r="S22">
-        <v>0.1858661864645665</v>
+        <v>0.055823492435608</v>
       </c>
       <c r="T22">
-        <v>0.1858661864645664</v>
+        <v>0.05582349243560802</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.338586666666667</v>
+        <v>0.4422173333333334</v>
       </c>
       <c r="H23">
-        <v>13.01576</v>
+        <v>1.326652</v>
       </c>
       <c r="I23">
-        <v>0.7498500531489646</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="J23">
-        <v>0.7498500531489645</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>88.33948451772446</v>
+        <v>7.588818691473335</v>
       </c>
       <c r="R23">
-        <v>795.05536065952</v>
+        <v>68.29936822326002</v>
       </c>
       <c r="S23">
-        <v>0.05421600287412578</v>
+        <v>0.01449949973764403</v>
       </c>
       <c r="T23">
-        <v>0.05421600287412578</v>
+        <v>0.01449949973764403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.338586666666667</v>
+        <v>0.4422173333333334</v>
       </c>
       <c r="H24">
-        <v>13.01576</v>
+        <v>1.326652</v>
       </c>
       <c r="I24">
-        <v>0.7498500531489646</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="J24">
-        <v>0.7498500531489645</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>131.4689566205422</v>
+        <v>14.62251916370356</v>
       </c>
       <c r="R24">
-        <v>1183.22060958488</v>
+        <v>131.602672473332</v>
       </c>
       <c r="S24">
-        <v>0.08068556624379587</v>
+        <v>0.02793836845990742</v>
       </c>
       <c r="T24">
-        <v>0.08068556624379586</v>
+        <v>0.02793836845990742</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.338586666666667</v>
+        <v>0.4422173333333334</v>
       </c>
       <c r="H25">
-        <v>13.01576</v>
+        <v>1.326652</v>
       </c>
       <c r="I25">
-        <v>0.7498500531489646</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="J25">
-        <v>0.7498500531489645</v>
+        <v>0.2496108567623621</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>346.0622531653779</v>
+        <v>39.62049617814045</v>
       </c>
       <c r="R25">
-        <v>3114.5602784884</v>
+        <v>356.5844656032641</v>
       </c>
       <c r="S25">
-        <v>0.2123864794397361</v>
+        <v>0.07570050060436238</v>
       </c>
       <c r="T25">
-        <v>0.2123864794397361</v>
+        <v>0.07570050060436238</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1908786666666666</v>
+        <v>0.361674</v>
       </c>
       <c r="H26">
-        <v>0.5726359999999999</v>
+        <v>1.085022</v>
       </c>
       <c r="I26">
-        <v>0.03299009316666952</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="J26">
-        <v>0.03299009316666951</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>1.909006240759555</v>
+        <v>6.565480057242</v>
       </c>
       <c r="R26">
-        <v>17.181056166836</v>
+        <v>59.089320515178</v>
       </c>
       <c r="S26">
-        <v>0.001171601672805529</v>
+        <v>0.01254426811836317</v>
       </c>
       <c r="T26">
-        <v>0.001171601672805529</v>
+        <v>0.01254426811836317</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1908786666666666</v>
+        <v>0.361674</v>
       </c>
       <c r="H27">
-        <v>0.5726359999999999</v>
+        <v>1.085022</v>
       </c>
       <c r="I27">
-        <v>0.03299009316666952</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="J27">
-        <v>0.03299009316666951</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>13.62512645727244</v>
+        <v>25.816682777406</v>
       </c>
       <c r="R27">
-        <v>122.626138115452</v>
+        <v>232.350144996654</v>
       </c>
       <c r="S27">
-        <v>0.008362058021966351</v>
+        <v>0.04932638403634902</v>
       </c>
       <c r="T27">
-        <v>0.008362058021966351</v>
+        <v>0.04932638403634903</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1908786666666666</v>
+        <v>0.361674</v>
       </c>
       <c r="H28">
-        <v>0.5726359999999999</v>
+        <v>1.085022</v>
       </c>
       <c r="I28">
-        <v>0.03299009316666952</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="J28">
-        <v>0.03299009316666951</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>13.32406887025867</v>
+        <v>23.89569629454</v>
       </c>
       <c r="R28">
-        <v>119.916619832328</v>
+        <v>215.06126665086</v>
       </c>
       <c r="S28">
-        <v>0.008177291956237934</v>
+        <v>0.04565607062701315</v>
       </c>
       <c r="T28">
-        <v>0.008177291956237934</v>
+        <v>0.04565607062701316</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1908786666666666</v>
+        <v>0.361674</v>
       </c>
       <c r="H29">
-        <v>0.5726359999999999</v>
+        <v>1.085022</v>
       </c>
       <c r="I29">
-        <v>0.03299009316666952</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="J29">
-        <v>0.03299009316666951</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>3.886547466785777</v>
+        <v>6.206627837790001</v>
       </c>
       <c r="R29">
-        <v>34.978927201072</v>
+        <v>55.85965054011</v>
       </c>
       <c r="S29">
-        <v>0.002385264865196338</v>
+        <v>0.01185863075195153</v>
       </c>
       <c r="T29">
-        <v>0.002385264865196338</v>
+        <v>0.01185863075195153</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1908786666666666</v>
+        <v>0.361674</v>
       </c>
       <c r="H30">
-        <v>0.5726359999999999</v>
+        <v>1.085022</v>
       </c>
       <c r="I30">
-        <v>0.03299009316666952</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="J30">
-        <v>0.03299009316666951</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>5.784053904140888</v>
+        <v>11.959244012778</v>
       </c>
       <c r="R30">
-        <v>52.05648513726799</v>
+        <v>107.633196115002</v>
       </c>
       <c r="S30">
-        <v>0.003549808840327594</v>
+        <v>0.02284980870876889</v>
       </c>
       <c r="T30">
-        <v>0.003549808840327593</v>
+        <v>0.02284980870876889</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1908786666666666</v>
+        <v>0.361674</v>
       </c>
       <c r="H31">
-        <v>0.5726359999999999</v>
+        <v>1.085022</v>
       </c>
       <c r="I31">
-        <v>0.03299009316666952</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="J31">
-        <v>0.03299009316666951</v>
+        <v>0.2041479385897821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>15.22521192797111</v>
+        <v>32.404209999456</v>
       </c>
       <c r="R31">
-        <v>137.02690735174</v>
+        <v>291.637889995104</v>
       </c>
       <c r="S31">
-        <v>0.009344067810135767</v>
+        <v>0.06191277634733635</v>
       </c>
       <c r="T31">
-        <v>0.009344067810135765</v>
+        <v>0.06191277634733635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.06709466666666666</v>
+      </c>
+      <c r="H32">
+        <v>0.201284</v>
+      </c>
+      <c r="I32">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="J32">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>18.153033</v>
+      </c>
+      <c r="N32">
+        <v>54.459099</v>
+      </c>
+      <c r="O32">
+        <v>0.06144694972193577</v>
+      </c>
+      <c r="P32">
+        <v>0.06144694972193578</v>
+      </c>
+      <c r="Q32">
+        <v>1.217971698124</v>
+      </c>
+      <c r="R32">
+        <v>10.961745283116</v>
+      </c>
+      <c r="S32">
+        <v>0.002327105315778494</v>
+      </c>
+      <c r="T32">
+        <v>0.002327105315778494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.06709466666666666</v>
+      </c>
+      <c r="H33">
+        <v>0.201284</v>
+      </c>
+      <c r="I33">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="J33">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N33">
+        <v>214.143257</v>
+      </c>
+      <c r="O33">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="P33">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="Q33">
+        <v>4.789290149109777</v>
+      </c>
+      <c r="R33">
+        <v>43.103611341988</v>
+      </c>
+      <c r="S33">
+        <v>0.009150608821178258</v>
+      </c>
+      <c r="T33">
+        <v>0.009150608821178262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.06709466666666666</v>
+      </c>
+      <c r="H34">
+        <v>0.201284</v>
+      </c>
+      <c r="I34">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="J34">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>66.06971</v>
+      </c>
+      <c r="N34">
+        <v>198.20913</v>
+      </c>
+      <c r="O34">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="P34">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="Q34">
+        <v>4.432925169213333</v>
+      </c>
+      <c r="R34">
+        <v>39.89632652292</v>
+      </c>
+      <c r="S34">
+        <v>0.008469723673886534</v>
+      </c>
+      <c r="T34">
+        <v>0.008469723673886537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.06709466666666666</v>
+      </c>
+      <c r="H35">
+        <v>0.201284</v>
+      </c>
+      <c r="I35">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="J35">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.160835</v>
+      </c>
+      <c r="N35">
+        <v>51.482505</v>
+      </c>
+      <c r="O35">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="P35">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="Q35">
+        <v>1.151400504046667</v>
+      </c>
+      <c r="R35">
+        <v>10.36260453642</v>
+      </c>
+      <c r="S35">
+        <v>0.002199911736606088</v>
+      </c>
+      <c r="T35">
+        <v>0.002199911736606089</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.06709466666666666</v>
+      </c>
+      <c r="H36">
+        <v>0.201284</v>
+      </c>
+      <c r="I36">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="J36">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>33.06636366666667</v>
+      </c>
+      <c r="N36">
+        <v>99.199091</v>
+      </c>
+      <c r="O36">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="P36">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="Q36">
+        <v>2.218576648093778</v>
+      </c>
+      <c r="R36">
+        <v>19.967189832844</v>
+      </c>
+      <c r="S36">
+        <v>0.004238901050979461</v>
+      </c>
+      <c r="T36">
+        <v>0.004238901050979462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.06709466666666666</v>
+      </c>
+      <c r="H37">
+        <v>0.201284</v>
+      </c>
+      <c r="I37">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="J37">
+        <v>0.0378717792552646</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>89.59507733333334</v>
+      </c>
+      <c r="N37">
+        <v>268.785232</v>
+      </c>
+      <c r="O37">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="P37">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="Q37">
+        <v>6.011351848654222</v>
+      </c>
+      <c r="R37">
+        <v>54.102166637888</v>
+      </c>
+      <c r="S37">
+        <v>0.01148552865683576</v>
+      </c>
+      <c r="T37">
+        <v>0.01148552865683576</v>
       </c>
     </row>
   </sheetData>
